--- a/Question Sheet/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/Question Sheet/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DSA Practice\Question Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8983A074-7AF7-4F26-8694-ADD21F245C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1FB75B-ECC5-43DE-9152-7A5062BB467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="699">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Amazon D-E-Shaw Microsoft Morgan Stanley OYO Rooms Google</t>
-  </si>
-  <si>
-    <t>Find Minimum in Rotated Sorted Array</t>
   </si>
   <si>
     <t xml:space="preserve"> Adobe Amazon Microsoft Morgan Stanley Samsung Snapdeal Times Internet</t>
@@ -2146,6 +2143,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>find minimum in Rotated Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -2753,8 +2753,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3082,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3192,7 +3192,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3364,7 +3364,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="2"/>
@@ -3435,7 +3435,9 @@
         <v>32</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3564,11 +3566,11 @@
       <c r="A25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -3599,10 +3601,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3633,10 +3635,10 @@
         <v>14</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -3667,10 +3669,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3701,10 +3703,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -3735,13 +3737,15 @@
         <v>14</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -3769,10 +3773,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -3803,10 +3807,10 @@
         <v>14</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -3837,10 +3841,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3871,10 +3875,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -3905,10 +3909,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3939,10 +3943,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -3973,10 +3977,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4060,13 +4064,13 @@
     </row>
     <row r="40" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="C40" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4094,13 +4098,13 @@
     </row>
     <row r="41" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4128,16 +4132,16 @@
     </row>
     <row r="42" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4164,13 +4168,13 @@
     </row>
     <row r="43" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4198,13 +4202,13 @@
     </row>
     <row r="44" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -4232,13 +4236,13 @@
     </row>
     <row r="45" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -4266,13 +4270,13 @@
     </row>
     <row r="46" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4300,13 +4304,13 @@
     </row>
     <row r="47" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4334,13 +4338,13 @@
     </row>
     <row r="48" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4368,13 +4372,13 @@
     </row>
     <row r="49" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4402,13 +4406,13 @@
     </row>
     <row r="50" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4436,13 +4440,13 @@
     </row>
     <row r="51" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4470,13 +4474,13 @@
     </row>
     <row r="52" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4504,13 +4508,13 @@
     </row>
     <row r="53" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4538,13 +4542,13 @@
     </row>
     <row r="54" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4572,13 +4576,13 @@
     </row>
     <row r="55" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4606,13 +4610,13 @@
     </row>
     <row r="56" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4640,13 +4644,13 @@
     </row>
     <row r="57" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4674,13 +4678,13 @@
     </row>
     <row r="58" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4708,13 +4712,13 @@
     </row>
     <row r="59" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -4742,13 +4746,13 @@
     </row>
     <row r="60" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4776,16 +4780,16 @@
     </row>
     <row r="61" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -4868,13 +4872,13 @@
     </row>
     <row r="64" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="C64" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
@@ -4902,13 +4906,13 @@
     </row>
     <row r="65" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
@@ -4936,13 +4940,13 @@
     </row>
     <row r="66" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
@@ -4970,13 +4974,13 @@
     </row>
     <row r="67" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -5004,13 +5008,13 @@
     </row>
     <row r="68" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
@@ -5038,16 +5042,16 @@
     </row>
     <row r="69" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="D69" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="2"/>
@@ -5074,13 +5078,13 @@
     </row>
     <row r="70" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
@@ -5108,13 +5112,13 @@
     </row>
     <row r="71" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -5142,13 +5146,13 @@
     </row>
     <row r="72" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
@@ -5176,13 +5180,13 @@
     </row>
     <row r="73" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -5266,13 +5270,13 @@
     </row>
     <row r="76" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="C76" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
@@ -5300,13 +5304,13 @@
     </row>
     <row r="77" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B77" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -5334,13 +5338,13 @@
     </row>
     <row r="78" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
@@ -5368,13 +5372,13 @@
     </row>
     <row r="79" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>132</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5402,13 +5406,13 @@
     </row>
     <row r="80" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>134</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5436,13 +5440,13 @@
     </row>
     <row r="81" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B81" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5470,13 +5474,13 @@
     </row>
     <row r="82" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>138</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5504,13 +5508,13 @@
     </row>
     <row r="83" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5538,13 +5542,13 @@
     </row>
     <row r="84" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B84" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -5571,13 +5575,13 @@
     </row>
     <row r="85" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -5604,13 +5608,13 @@
     </row>
     <row r="86" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5638,13 +5642,13 @@
     </row>
     <row r="87" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>148</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5672,13 +5676,13 @@
     </row>
     <row r="88" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5706,13 +5710,13 @@
     </row>
     <row r="89" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>152</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5740,13 +5744,13 @@
     </row>
     <row r="90" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5774,13 +5778,13 @@
     </row>
     <row r="91" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5808,13 +5812,13 @@
     </row>
     <row r="92" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5842,13 +5846,13 @@
     </row>
     <row r="93" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5876,13 +5880,13 @@
     </row>
     <row r="94" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5910,13 +5914,13 @@
     </row>
     <row r="95" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B95" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5944,13 +5948,13 @@
     </row>
     <row r="96" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B96" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>163</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>164</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="17"/>
@@ -5978,13 +5982,13 @@
     </row>
     <row r="97" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>165</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>166</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6012,13 +6016,13 @@
     </row>
     <row r="98" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6102,13 +6106,13 @@
     </row>
     <row r="101" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="C101" s="31" t="s">
         <v>169</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>170</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6136,13 +6140,13 @@
     </row>
     <row r="102" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B102" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="31" t="s">
         <v>171</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>172</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6170,13 +6174,13 @@
     </row>
     <row r="103" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6204,13 +6208,13 @@
     </row>
     <row r="104" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6238,13 +6242,13 @@
     </row>
     <row r="105" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B105" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6272,13 +6276,13 @@
     </row>
     <row r="106" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B106" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="31" t="s">
         <v>177</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>178</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6306,13 +6310,13 @@
     </row>
     <row r="107" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B107" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>180</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6340,13 +6344,13 @@
     </row>
     <row r="108" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -6374,13 +6378,13 @@
     </row>
     <row r="109" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B109" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="18" t="s">
         <v>182</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>183</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -6407,13 +6411,13 @@
     </row>
     <row r="110" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -6440,13 +6444,13 @@
     </row>
     <row r="111" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B111" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -6473,10 +6477,10 @@
     </row>
     <row r="112" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C112" s="18"/>
       <c r="E112" s="2"/>
@@ -6504,13 +6508,13 @@
     </row>
     <row r="113" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B113" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" s="31" t="s">
         <v>188</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>189</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -6537,13 +6541,13 @@
     </row>
     <row r="114" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -6570,13 +6574,13 @@
     </row>
     <row r="115" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -6604,13 +6608,13 @@
     </row>
     <row r="116" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6638,13 +6642,13 @@
     </row>
     <row r="117" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B117" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>193</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>194</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6672,13 +6676,13 @@
     </row>
     <row r="118" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6706,13 +6710,13 @@
     </row>
     <row r="119" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B119" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -6738,13 +6742,13 @@
     </row>
     <row r="120" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B120" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C120" s="18" t="s">
         <v>198</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>199</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -6770,13 +6774,13 @@
     </row>
     <row r="121" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B121" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" s="31" t="s">
         <v>200</v>
-      </c>
-      <c r="C121" s="31" t="s">
-        <v>201</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -6854,13 +6858,13 @@
     </row>
     <row r="124" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="C124" s="18" t="s">
         <v>203</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>204</v>
       </c>
       <c r="D124" s="19"/>
       <c r="F124" s="2"/>
@@ -6887,13 +6891,13 @@
     </row>
     <row r="125" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B125" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="D125" s="19"/>
       <c r="F125" s="2"/>
@@ -6920,13 +6924,13 @@
     </row>
     <row r="126" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B126" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126" s="18" t="s">
         <v>207</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>208</v>
       </c>
       <c r="D126" s="19"/>
       <c r="F126" s="2"/>
@@ -6953,13 +6957,13 @@
     </row>
     <row r="127" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B127" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>209</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>210</v>
       </c>
       <c r="D127" s="19"/>
       <c r="F127" s="2"/>
@@ -6986,13 +6990,13 @@
     </row>
     <row r="128" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A128" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B128" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="34" t="s">
         <v>211</v>
-      </c>
-      <c r="C128" s="34" t="s">
-        <v>212</v>
       </c>
       <c r="D128" s="19"/>
       <c r="F128" s="2"/>
@@ -7019,13 +7023,13 @@
     </row>
     <row r="129" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A129" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B129" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C129" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="C129" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="D129" s="19"/>
       <c r="F129" s="2"/>
@@ -7052,13 +7056,13 @@
     </row>
     <row r="130" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A130" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D130" s="19"/>
       <c r="F130" s="2"/>
@@ -7085,13 +7089,13 @@
     </row>
     <row r="131" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A131" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B131" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C131" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="D131" s="19"/>
       <c r="F131" s="2"/>
@@ -7118,13 +7122,13 @@
     </row>
     <row r="132" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A132" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B132" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C132" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>219</v>
       </c>
       <c r="D132" s="19"/>
       <c r="F132" s="2"/>
@@ -7151,13 +7155,13 @@
     </row>
     <row r="133" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A133" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D133" s="19"/>
       <c r="F133" s="2"/>
@@ -7184,13 +7188,13 @@
     </row>
     <row r="134" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A134" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D134" s="19"/>
       <c r="F134" s="2"/>
@@ -7217,13 +7221,13 @@
     </row>
     <row r="135" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A135" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B135" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C135" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7251,13 +7255,13 @@
     </row>
     <row r="136" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A136" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B136" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C136" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>225</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -7285,13 +7289,13 @@
     </row>
     <row r="137" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A137" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B137" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C137" s="18" t="s">
         <v>226</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>227</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="36"/>
@@ -7319,13 +7323,13 @@
     </row>
     <row r="138" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A138" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="36"/>
@@ -7353,13 +7357,13 @@
     </row>
     <row r="139" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A139" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -7387,13 +7391,13 @@
     </row>
     <row r="140" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A140" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B140" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C140" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -7421,13 +7425,13 @@
     </row>
     <row r="141" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A141" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B141" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C141" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -7455,13 +7459,13 @@
     </row>
     <row r="142" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A142" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B142" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C142" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>235</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="36"/>
@@ -7489,13 +7493,13 @@
     </row>
     <row r="143" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A143" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B143" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="C143" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="36"/>
@@ -7523,16 +7527,16 @@
     </row>
     <row r="144" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A144" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B144" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C144" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="D144" s="37" t="s">
         <v>239</v>
-      </c>
-      <c r="D144" s="37" t="s">
-        <v>240</v>
       </c>
       <c r="E144" s="36"/>
       <c r="F144" s="2"/>
@@ -7559,16 +7563,16 @@
     </row>
     <row r="145" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A145" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B145" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C145" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C145" s="18" t="s">
-        <v>242</v>
-      </c>
       <c r="D145" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -7595,13 +7599,13 @@
     </row>
     <row r="146" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A146" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B146" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C146" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>244</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="36"/>
@@ -7629,13 +7633,13 @@
     </row>
     <row r="147" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A147" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B147" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C147" s="38" t="s">
         <v>245</v>
-      </c>
-      <c r="C147" s="38" t="s">
-        <v>246</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="36"/>
@@ -7663,13 +7667,13 @@
     </row>
     <row r="148" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A148" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B148" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C148" s="18" t="s">
         <v>247</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>248</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="36"/>
@@ -7697,13 +7701,13 @@
     </row>
     <row r="149" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A149" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B149" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C149" s="18" t="s">
         <v>249</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="36"/>
@@ -7760,7 +7764,7 @@
     <row r="151" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A151" s="24"/>
       <c r="B151" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C151" s="23"/>
       <c r="D151" s="2"/>
@@ -7789,13 +7793,13 @@
     </row>
     <row r="152" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A152" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B152" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B152" s="16" t="s">
+      <c r="C152" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="C152" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -7823,13 +7827,13 @@
     </row>
     <row r="153" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A153" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B153" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>255</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>256</v>
       </c>
       <c r="D153" s="36"/>
       <c r="E153" s="2"/>
@@ -7857,13 +7861,13 @@
     </row>
     <row r="154" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A154" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B154" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C154" s="18" t="s">
         <v>257</v>
-      </c>
-      <c r="C154" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="D154" s="36"/>
       <c r="E154" s="2"/>
@@ -7891,13 +7895,13 @@
     </row>
     <row r="155" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A155" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B155" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C155" s="18" t="s">
         <v>259</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>260</v>
       </c>
       <c r="D155" s="36"/>
       <c r="E155" s="2"/>
@@ -7925,13 +7929,13 @@
     </row>
     <row r="156" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A156" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B156" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C156" s="18" t="s">
         <v>261</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>262</v>
       </c>
       <c r="D156" s="36"/>
       <c r="E156" s="2"/>
@@ -7959,13 +7963,13 @@
     </row>
     <row r="157" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A157" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B157" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C157" s="18" t="s">
         <v>263</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>264</v>
       </c>
       <c r="D157" s="36"/>
       <c r="E157" s="2"/>
@@ -7993,13 +7997,13 @@
     </row>
     <row r="158" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A158" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B158" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C158" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="D158" s="36"/>
       <c r="E158" s="2"/>
@@ -8027,13 +8031,13 @@
     </row>
     <row r="159" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A159" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C159" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="D159" s="36"/>
       <c r="E159" s="2"/>
@@ -8061,13 +8065,13 @@
     </row>
     <row r="160" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A160" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B160" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C160" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="C160" s="18" t="s">
-        <v>270</v>
       </c>
       <c r="D160" s="36"/>
       <c r="E160" s="2"/>
@@ -8095,13 +8099,13 @@
     </row>
     <row r="161" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A161" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B161" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C161" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>272</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -8127,13 +8131,13 @@
     </row>
     <row r="162" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A162" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C162" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>274</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -8159,13 +8163,13 @@
     </row>
     <row r="163" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A163" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C163" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="C163" s="18" t="s">
-        <v>276</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -8191,13 +8195,13 @@
     </row>
     <row r="164" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A164" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -8223,13 +8227,13 @@
     </row>
     <row r="165" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A165" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B165" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C165" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -8255,13 +8259,13 @@
     </row>
     <row r="166" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A166" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B166" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C166" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="C166" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -8287,13 +8291,13 @@
     </row>
     <row r="167" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A167" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B167" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C167" s="18" t="s">
         <v>282</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>283</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -8319,13 +8323,13 @@
     </row>
     <row r="168" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A168" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -8351,13 +8355,13 @@
     </row>
     <row r="169" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A169" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B169" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C169" s="18" t="s">
         <v>285</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>286</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -8383,13 +8387,13 @@
     </row>
     <row r="170" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A170" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -8415,13 +8419,13 @@
     </row>
     <row r="171" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A171" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B171" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C171" s="18" t="s">
         <v>288</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>289</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -8447,13 +8451,13 @@
     </row>
     <row r="172" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A172" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B172" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="C172" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C172" s="18" t="s">
-        <v>291</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -8479,13 +8483,13 @@
     </row>
     <row r="173" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A173" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -8511,13 +8515,13 @@
     </row>
     <row r="174" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A174" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -8543,13 +8547,13 @@
     </row>
     <row r="175" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A175" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -8575,13 +8579,13 @@
     </row>
     <row r="176" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A176" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B176" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C176" s="18" t="s">
         <v>295</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>296</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -8607,13 +8611,13 @@
     </row>
     <row r="177" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A177" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B177" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C177" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>298</v>
       </c>
       <c r="D177" s="40"/>
       <c r="E177" s="2"/>
@@ -8641,13 +8645,13 @@
     </row>
     <row r="178" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A178" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D178" s="40"/>
       <c r="E178" s="2"/>
@@ -8729,13 +8733,13 @@
     </row>
     <row r="181" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A181" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B181" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="C181" s="41" t="s">
         <v>301</v>
-      </c>
-      <c r="C181" s="41" t="s">
-        <v>302</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -8763,13 +8767,13 @@
     </row>
     <row r="182" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A182" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B182" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C182" s="41" t="s">
         <v>303</v>
-      </c>
-      <c r="C182" s="41" t="s">
-        <v>304</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8797,13 +8801,13 @@
     </row>
     <row r="183" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A183" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8831,13 +8835,13 @@
     </row>
     <row r="184" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A184" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -8865,13 +8869,13 @@
     </row>
     <row r="185" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A185" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B185" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C185" s="41" t="s">
         <v>307</v>
-      </c>
-      <c r="C185" s="41" t="s">
-        <v>308</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -8899,10 +8903,10 @@
     </row>
     <row r="186" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A186" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C186" s="41"/>
       <c r="F186" s="2"/>
@@ -8929,13 +8933,13 @@
     </row>
     <row r="187" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A187" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B187" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C187" s="41" t="s">
         <v>310</v>
-      </c>
-      <c r="C187" s="41" t="s">
-        <v>311</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -8961,13 +8965,13 @@
     </row>
     <row r="188" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A188" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B188" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C188" s="41" t="s">
         <v>312</v>
-      </c>
-      <c r="C188" s="41" t="s">
-        <v>313</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -8993,10 +8997,10 @@
     </row>
     <row r="189" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A189" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C189" s="41"/>
       <c r="F189" s="2"/>
@@ -9023,13 +9027,13 @@
     </row>
     <row r="190" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A190" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -9055,13 +9059,13 @@
     </row>
     <row r="191" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A191" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B191" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C191" s="41" t="s">
         <v>316</v>
-      </c>
-      <c r="C191" s="41" t="s">
-        <v>317</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -9087,13 +9091,13 @@
     </row>
     <row r="192" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A192" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B192" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C192" s="41" t="s">
         <v>318</v>
-      </c>
-      <c r="C192" s="41" t="s">
-        <v>319</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -9119,13 +9123,13 @@
     </row>
     <row r="193" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A193" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B193" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C193" s="41" t="s">
         <v>320</v>
-      </c>
-      <c r="C193" s="41" t="s">
-        <v>321</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -9151,13 +9155,13 @@
     </row>
     <row r="194" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A194" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C194" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -9183,13 +9187,13 @@
     </row>
     <row r="195" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A195" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C195" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -9215,13 +9219,13 @@
     </row>
     <row r="196" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A196" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B196" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C196" s="18" t="s">
         <v>324</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>325</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -9247,10 +9251,10 @@
     </row>
     <row r="197" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A197" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C197" s="18"/>
       <c r="F197" s="2"/>
@@ -9277,13 +9281,13 @@
     </row>
     <row r="198" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A198" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B198" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C198" s="18" t="s">
         <v>327</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>328</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -9309,13 +9313,13 @@
     </row>
     <row r="199" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A199" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -9341,10 +9345,10 @@
     </row>
     <row r="200" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A200" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C200" s="18"/>
       <c r="F200" s="2"/>
@@ -9371,10 +9375,10 @@
     </row>
     <row r="201" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A201" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C201" s="18"/>
       <c r="F201" s="2"/>
@@ -9401,13 +9405,13 @@
     </row>
     <row r="202" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A202" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -9489,13 +9493,13 @@
     </row>
     <row r="205" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B205" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="B205" s="16" t="s">
+      <c r="C205" s="18" t="s">
         <v>334</v>
-      </c>
-      <c r="C205" s="18" t="s">
-        <v>335</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9523,13 +9527,13 @@
     </row>
     <row r="206" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A206" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B206" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C206" s="18" t="s">
         <v>336</v>
-      </c>
-      <c r="C206" s="18" t="s">
-        <v>337</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -9557,13 +9561,13 @@
     </row>
     <row r="207" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A207" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B207" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C207" s="18" t="s">
         <v>338</v>
-      </c>
-      <c r="C207" s="18" t="s">
-        <v>339</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -9591,13 +9595,13 @@
     </row>
     <row r="208" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B208" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C208" s="18" t="s">
         <v>340</v>
-      </c>
-      <c r="C208" s="18" t="s">
-        <v>341</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -9625,13 +9629,13 @@
     </row>
     <row r="209" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B209" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C209" s="18" t="s">
         <v>342</v>
-      </c>
-      <c r="C209" s="18" t="s">
-        <v>343</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9659,13 +9663,13 @@
     </row>
     <row r="210" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A210" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B210" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C210" s="18" t="s">
         <v>344</v>
-      </c>
-      <c r="C210" s="18" t="s">
-        <v>345</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9693,13 +9697,13 @@
     </row>
     <row r="211" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="40"/>
@@ -9726,13 +9730,13 @@
     </row>
     <row r="212" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A212" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B212" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C212" s="18" t="s">
         <v>347</v>
-      </c>
-      <c r="C212" s="18" t="s">
-        <v>348</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="40"/>
@@ -9759,13 +9763,13 @@
     </row>
     <row r="213" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A213" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B213" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C213" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="C213" s="18" t="s">
-        <v>350</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="40"/>
@@ -9792,13 +9796,13 @@
     </row>
     <row r="214" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A214" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="40"/>
@@ -9825,13 +9829,13 @@
     </row>
     <row r="215" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A215" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B215" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C215" s="18" t="s">
         <v>352</v>
-      </c>
-      <c r="C215" s="18" t="s">
-        <v>353</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="40"/>
@@ -9858,13 +9862,13 @@
     </row>
     <row r="216" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A216" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B216" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C216" s="18" t="s">
         <v>354</v>
-      </c>
-      <c r="C216" s="18" t="s">
-        <v>355</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="40"/>
@@ -9891,13 +9895,13 @@
     </row>
     <row r="217" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C217" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="40"/>
@@ -9924,13 +9928,13 @@
     </row>
     <row r="218" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A218" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="40"/>
@@ -9957,13 +9961,13 @@
     </row>
     <row r="219" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A219" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B219" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C219" s="18" t="s">
         <v>358</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>359</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -9991,13 +9995,13 @@
     </row>
     <row r="220" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A220" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -10025,13 +10029,13 @@
     </row>
     <row r="221" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A221" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B221" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C221" s="18" t="s">
         <v>361</v>
-      </c>
-      <c r="C221" s="18" t="s">
-        <v>362</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -10059,13 +10063,13 @@
     </row>
     <row r="222" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A222" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B222" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C222" s="18" t="s">
         <v>363</v>
-      </c>
-      <c r="C222" s="18" t="s">
-        <v>364</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -10093,13 +10097,13 @@
     </row>
     <row r="223" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A223" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B223" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C223" s="18" t="s">
         <v>365</v>
-      </c>
-      <c r="C223" s="18" t="s">
-        <v>366</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -10127,13 +10131,13 @@
     </row>
     <row r="224" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A224" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -10161,13 +10165,13 @@
     </row>
     <row r="225" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A225" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B225" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C225" s="18" t="s">
         <v>368</v>
-      </c>
-      <c r="C225" s="18" t="s">
-        <v>369</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -10195,13 +10199,13 @@
     </row>
     <row r="226" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A226" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B226" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C226" s="18" t="s">
         <v>370</v>
-      </c>
-      <c r="C226" s="18" t="s">
-        <v>371</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -10229,13 +10233,13 @@
     </row>
     <row r="227" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A227" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B227" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C227" s="18" t="s">
         <v>372</v>
-      </c>
-      <c r="C227" s="18" t="s">
-        <v>373</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -10263,13 +10267,13 @@
     </row>
     <row r="228" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A228" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -10297,13 +10301,13 @@
     </row>
     <row r="229" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A229" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B229" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C229" s="18" t="s">
         <v>375</v>
-      </c>
-      <c r="C229" s="18" t="s">
-        <v>376</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -10331,13 +10335,13 @@
     </row>
     <row r="230" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A230" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B230" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C230" s="18" t="s">
         <v>377</v>
-      </c>
-      <c r="C230" s="18" t="s">
-        <v>378</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -10365,13 +10369,13 @@
     </row>
     <row r="231" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A231" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B231" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C231" s="18" t="s">
         <v>379</v>
-      </c>
-      <c r="C231" s="18" t="s">
-        <v>380</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -10399,13 +10403,13 @@
     </row>
     <row r="232" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A232" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B232" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C232" s="18" t="s">
         <v>381</v>
-      </c>
-      <c r="C232" s="18" t="s">
-        <v>382</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -10433,13 +10437,13 @@
     </row>
     <row r="233" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A233" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B233" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C233" s="18" t="s">
         <v>383</v>
-      </c>
-      <c r="C233" s="18" t="s">
-        <v>384</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -10467,13 +10471,13 @@
     </row>
     <row r="234" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A234" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B234" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C234" s="18" t="s">
         <v>385</v>
-      </c>
-      <c r="C234" s="18" t="s">
-        <v>386</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -10501,13 +10505,13 @@
     </row>
     <row r="235" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A235" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B235" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C235" s="18" t="s">
         <v>387</v>
-      </c>
-      <c r="C235" s="18" t="s">
-        <v>388</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -10535,13 +10539,13 @@
     </row>
     <row r="236" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A236" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B236" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C236" s="18" t="s">
         <v>389</v>
-      </c>
-      <c r="C236" s="18" t="s">
-        <v>390</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -10569,13 +10573,13 @@
     </row>
     <row r="237" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A237" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B237" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C237" s="18" t="s">
         <v>391</v>
-      </c>
-      <c r="C237" s="18" t="s">
-        <v>392</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -10659,13 +10663,13 @@
     </row>
     <row r="240" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A240" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B240" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="B240" s="16" t="s">
+      <c r="C240" s="18" t="s">
         <v>394</v>
-      </c>
-      <c r="C240" s="18" t="s">
-        <v>395</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10693,13 +10697,13 @@
     </row>
     <row r="241" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B241" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C241" s="18" t="s">
         <v>396</v>
-      </c>
-      <c r="C241" s="18" t="s">
-        <v>397</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="43"/>
@@ -10727,13 +10731,13 @@
     </row>
     <row r="242" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A242" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C242" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="40"/>
@@ -10761,13 +10765,13 @@
     </row>
     <row r="243" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A243" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B243" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C243" s="18" t="s">
         <v>399</v>
-      </c>
-      <c r="C243" s="18" t="s">
-        <v>400</v>
       </c>
       <c r="D243" s="19"/>
       <c r="F243" s="40"/>
@@ -10794,13 +10798,13 @@
     </row>
     <row r="244" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A244" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C244" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D244" s="19"/>
       <c r="F244" s="2"/>
@@ -10827,13 +10831,13 @@
     </row>
     <row r="245" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A245" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B245" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C245" s="18" t="s">
         <v>402</v>
-      </c>
-      <c r="C245" s="18" t="s">
-        <v>403</v>
       </c>
       <c r="D245" s="19"/>
       <c r="F245" s="2"/>
@@ -10860,13 +10864,13 @@
     </row>
     <row r="246" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A246" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B246" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C246" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="C246" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="D246" s="19"/>
       <c r="F246" s="2"/>
@@ -10893,13 +10897,13 @@
     </row>
     <row r="247" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A247" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B247" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C247" s="31" t="s">
         <v>406</v>
-      </c>
-      <c r="C247" s="31" t="s">
-        <v>407</v>
       </c>
       <c r="D247" s="19"/>
       <c r="F247" s="2"/>
@@ -10926,13 +10930,13 @@
     </row>
     <row r="248" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A248" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B248" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C248" s="18" t="s">
         <v>408</v>
-      </c>
-      <c r="C248" s="18" t="s">
-        <v>409</v>
       </c>
       <c r="D248" s="19"/>
       <c r="F248" s="2"/>
@@ -10959,13 +10963,13 @@
     </row>
     <row r="249" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A249" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B249" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C249" s="31" t="s">
         <v>410</v>
-      </c>
-      <c r="C249" s="31" t="s">
-        <v>411</v>
       </c>
       <c r="D249" s="19"/>
       <c r="F249" s="2"/>
@@ -10992,13 +10996,13 @@
     </row>
     <row r="250" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A250" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C250" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D250" s="19"/>
       <c r="F250" s="2"/>
@@ -11025,13 +11029,13 @@
     </row>
     <row r="251" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A251" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B251" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C251" s="18" t="s">
         <v>413</v>
-      </c>
-      <c r="C251" s="18" t="s">
-        <v>414</v>
       </c>
       <c r="D251" s="19"/>
       <c r="F251" s="2"/>
@@ -11058,13 +11062,13 @@
     </row>
     <row r="252" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A252" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B252" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C252" s="18" t="s">
         <v>415</v>
-      </c>
-      <c r="C252" s="18" t="s">
-        <v>416</v>
       </c>
       <c r="D252" s="19"/>
       <c r="F252" s="2"/>
@@ -11091,13 +11095,13 @@
     </row>
     <row r="253" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A253" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B253" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C253" s="18" t="s">
         <v>417</v>
-      </c>
-      <c r="C253" s="18" t="s">
-        <v>418</v>
       </c>
       <c r="D253" s="19"/>
       <c r="F253" s="2"/>
@@ -11124,13 +11128,13 @@
     </row>
     <row r="254" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A254" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C254" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D254" s="19"/>
       <c r="F254" s="2"/>
@@ -11157,13 +11161,13 @@
     </row>
     <row r="255" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A255" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D255" s="19"/>
       <c r="F255" s="2"/>
@@ -11190,13 +11194,13 @@
     </row>
     <row r="256" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A256" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C256" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D256" s="19"/>
       <c r="F256" s="2"/>
@@ -11223,13 +11227,13 @@
     </row>
     <row r="257" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A257" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C257" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D257" s="19"/>
       <c r="F257" s="2"/>
@@ -11256,13 +11260,13 @@
     </row>
     <row r="258" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A258" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B258" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C258" s="18" t="s">
         <v>423</v>
-      </c>
-      <c r="C258" s="18" t="s">
-        <v>424</v>
       </c>
       <c r="D258" s="19"/>
       <c r="F258" s="2"/>
@@ -11289,13 +11293,13 @@
     </row>
     <row r="259" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A259" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C259" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -11323,16 +11327,16 @@
     </row>
     <row r="260" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A260" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B260" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C260" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="C260" s="18" t="s">
-        <v>427</v>
-      </c>
       <c r="D260" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -11415,10 +11419,10 @@
     </row>
     <row r="263" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A263" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B263" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="B263" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="C263" s="18"/>
       <c r="D263" s="2"/>
@@ -11447,13 +11451,13 @@
     </row>
     <row r="264" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A264" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C264" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D264" s="36"/>
       <c r="E264" s="2"/>
@@ -11481,13 +11485,13 @@
     </row>
     <row r="265" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A265" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C265" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D265" s="36"/>
       <c r="E265" s="2"/>
@@ -11515,10 +11519,10 @@
     </row>
     <row r="266" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A266" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C266" s="18" t="s">
         <v>32</v>
@@ -11549,13 +11553,13 @@
     </row>
     <row r="267" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A267" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B267" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C267" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="C267" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="D267" s="36"/>
       <c r="E267" s="2"/>
@@ -11583,10 +11587,10 @@
     </row>
     <row r="268" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A268" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C268" s="18" t="s">
         <v>16</v>
@@ -11617,13 +11621,13 @@
     </row>
     <row r="269" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A269" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B269" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C269" s="18" t="s">
         <v>436</v>
-      </c>
-      <c r="C269" s="18" t="s">
-        <v>437</v>
       </c>
       <c r="D269" s="36"/>
       <c r="E269" s="2"/>
@@ -11651,10 +11655,10 @@
     </row>
     <row r="270" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A270" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C270" s="18" t="s">
         <v>16</v>
@@ -11685,13 +11689,13 @@
     </row>
     <row r="271" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A271" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B271" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C271" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="C271" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="D271" s="36"/>
       <c r="E271" s="2"/>
@@ -11719,13 +11723,13 @@
     </row>
     <row r="272" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A272" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B272" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C272" s="38" t="s">
         <v>441</v>
-      </c>
-      <c r="C272" s="38" t="s">
-        <v>442</v>
       </c>
       <c r="D272" s="36"/>
       <c r="E272" s="2"/>
@@ -11753,13 +11757,13 @@
     </row>
     <row r="273" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A273" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B273" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C273" s="18" t="s">
         <v>443</v>
-      </c>
-      <c r="C273" s="18" t="s">
-        <v>444</v>
       </c>
       <c r="D273" s="36"/>
       <c r="E273" s="2"/>
@@ -11787,13 +11791,13 @@
     </row>
     <row r="274" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A274" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B274" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C274" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="C274" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="D274" s="36"/>
       <c r="E274" s="2"/>
@@ -11821,13 +11825,13 @@
     </row>
     <row r="275" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A275" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B275" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C275" s="18" t="s">
         <v>447</v>
-      </c>
-      <c r="C275" s="18" t="s">
-        <v>448</v>
       </c>
       <c r="D275" s="36"/>
       <c r="E275" s="2"/>
@@ -11855,13 +11859,13 @@
     </row>
     <row r="276" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A276" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B276" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C276" s="18" t="s">
         <v>449</v>
-      </c>
-      <c r="C276" s="18" t="s">
-        <v>450</v>
       </c>
       <c r="D276" s="36"/>
       <c r="E276" s="2"/>
@@ -11889,13 +11893,13 @@
     </row>
     <row r="277" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A277" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B277" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C277" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D277" s="36"/>
       <c r="E277" s="2"/>
@@ -11923,13 +11927,13 @@
     </row>
     <row r="278" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A278" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B278" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C278" s="18" t="s">
         <v>452</v>
-      </c>
-      <c r="C278" s="18" t="s">
-        <v>453</v>
       </c>
       <c r="D278" s="36"/>
       <c r="E278" s="2"/>
@@ -11957,13 +11961,13 @@
     </row>
     <row r="279" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A279" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B279" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D279" s="36"/>
       <c r="E279" s="2"/>
@@ -11991,13 +11995,13 @@
     </row>
     <row r="280" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A280" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B280" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C280" s="18" t="s">
         <v>455</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>456</v>
       </c>
       <c r="D280" s="36"/>
       <c r="E280" s="2"/>
@@ -12025,13 +12029,13 @@
     </row>
     <row r="281" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A281" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B281" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C281" s="18" t="s">
         <v>457</v>
-      </c>
-      <c r="C281" s="18" t="s">
-        <v>458</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
@@ -12058,13 +12062,13 @@
     </row>
     <row r="282" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A282" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B282" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C282" s="18" t="s">
         <v>459</v>
-      </c>
-      <c r="C282" s="18" t="s">
-        <v>460</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
@@ -12091,13 +12095,13 @@
     </row>
     <row r="283" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A283" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B283" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C283" s="18" t="s">
         <v>461</v>
-      </c>
-      <c r="C283" s="18" t="s">
-        <v>462</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
@@ -12124,13 +12128,13 @@
     </row>
     <row r="284" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A284" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B284" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C284" s="18" t="s">
         <v>463</v>
-      </c>
-      <c r="C284" s="18" t="s">
-        <v>464</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
@@ -12157,13 +12161,13 @@
     </row>
     <row r="285" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A285" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B285" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C285" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -12190,13 +12194,13 @@
     </row>
     <row r="286" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A286" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B286" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C286" s="18" t="s">
         <v>466</v>
-      </c>
-      <c r="C286" s="18" t="s">
-        <v>467</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
@@ -12223,13 +12227,13 @@
     </row>
     <row r="287" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A287" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B287" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C287" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
@@ -12256,13 +12260,13 @@
     </row>
     <row r="288" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A288" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C288" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
@@ -12289,13 +12293,13 @@
     </row>
     <row r="289" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A289" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B289" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C289" s="18" t="s">
         <v>470</v>
-      </c>
-      <c r="C289" s="18" t="s">
-        <v>471</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
@@ -12322,13 +12326,13 @@
     </row>
     <row r="290" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A290" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B290" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
@@ -12410,13 +12414,13 @@
     </row>
     <row r="293" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A293" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B293" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="B293" s="16" t="s">
+      <c r="C293" s="18" t="s">
         <v>474</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>475</v>
       </c>
       <c r="D293" s="40"/>
       <c r="E293" s="2"/>
@@ -12444,13 +12448,13 @@
     </row>
     <row r="294" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A294" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B294" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C294" s="18" t="s">
         <v>476</v>
-      </c>
-      <c r="C294" s="18" t="s">
-        <v>477</v>
       </c>
       <c r="D294" s="40"/>
       <c r="E294" s="2"/>
@@ -12478,13 +12482,13 @@
     </row>
     <row r="295" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A295" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B295" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C295" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>479</v>
       </c>
       <c r="D295" s="40"/>
       <c r="E295" s="2"/>
@@ -12512,13 +12516,13 @@
     </row>
     <row r="296" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A296" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B296" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C296" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D296" s="40"/>
       <c r="E296" s="2"/>
@@ -12546,13 +12550,13 @@
     </row>
     <row r="297" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A297" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B297" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C297" s="18" t="s">
         <v>481</v>
-      </c>
-      <c r="C297" s="18" t="s">
-        <v>482</v>
       </c>
       <c r="D297" s="40"/>
       <c r="E297" s="2"/>
@@ -12580,13 +12584,13 @@
     </row>
     <row r="298" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A298" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C298" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D298" s="40"/>
       <c r="E298" s="2"/>
@@ -12614,13 +12618,13 @@
     </row>
     <row r="299" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A299" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B299" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C299" s="18" t="s">
         <v>484</v>
-      </c>
-      <c r="C299" s="18" t="s">
-        <v>485</v>
       </c>
       <c r="D299" s="40"/>
       <c r="E299" s="2"/>
@@ -12648,13 +12652,13 @@
     </row>
     <row r="300" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A300" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B300" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C300" s="18" t="s">
         <v>486</v>
-      </c>
-      <c r="C300" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="D300" s="40"/>
       <c r="E300" s="2"/>
@@ -12682,13 +12686,13 @@
     </row>
     <row r="301" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A301" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B301" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C301" s="18" t="s">
         <v>488</v>
-      </c>
-      <c r="C301" s="18" t="s">
-        <v>489</v>
       </c>
       <c r="D301" s="40"/>
       <c r="E301" s="2"/>
@@ -12716,13 +12720,13 @@
     </row>
     <row r="302" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A302" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B302" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C302" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D302" s="40"/>
       <c r="E302" s="2"/>
@@ -12750,13 +12754,13 @@
     </row>
     <row r="303" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A303" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B303" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C303" s="18" t="s">
         <v>491</v>
-      </c>
-      <c r="C303" s="18" t="s">
-        <v>492</v>
       </c>
       <c r="D303" s="40"/>
       <c r="E303" s="2"/>
@@ -12784,13 +12788,13 @@
     </row>
     <row r="304" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A304" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B304" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C304" s="18" t="s">
         <v>493</v>
-      </c>
-      <c r="C304" s="18" t="s">
-        <v>494</v>
       </c>
       <c r="D304" s="40"/>
       <c r="E304" s="2"/>
@@ -12818,13 +12822,13 @@
     </row>
     <row r="305" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A305" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B305" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C305" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D305" s="40"/>
       <c r="E305" s="2"/>
@@ -12852,13 +12856,13 @@
     </row>
     <row r="306" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A306" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C306" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D306" s="40"/>
       <c r="E306" s="2"/>
@@ -12886,13 +12890,13 @@
     </row>
     <row r="307" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A307" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B307" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C307" s="18" t="s">
         <v>497</v>
-      </c>
-      <c r="C307" s="18" t="s">
-        <v>498</v>
       </c>
       <c r="D307" s="40"/>
       <c r="E307" s="2"/>
@@ -12920,13 +12924,13 @@
     </row>
     <row r="308" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A308" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B308" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="C308" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="C308" s="18" t="s">
-        <v>500</v>
       </c>
       <c r="D308" s="40"/>
       <c r="E308" s="2"/>
@@ -12954,13 +12958,13 @@
     </row>
     <row r="309" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A309" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B309" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C309" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D309" s="40"/>
       <c r="E309" s="2"/>
@@ -12988,13 +12992,13 @@
     </row>
     <row r="310" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A310" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B310" s="44" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D310" s="40"/>
       <c r="E310" s="2"/>
@@ -13022,13 +13026,13 @@
     </row>
     <row r="311" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A311" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B311" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="C311" s="18" t="s">
         <v>503</v>
-      </c>
-      <c r="C311" s="18" t="s">
-        <v>504</v>
       </c>
       <c r="D311" s="40"/>
       <c r="E311" s="2"/>
@@ -13056,13 +13060,13 @@
     </row>
     <row r="312" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A312" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C312" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D312" s="40"/>
       <c r="E312" s="2"/>
@@ -13090,13 +13094,13 @@
     </row>
     <row r="313" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A313" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B313" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C313" s="18" t="s">
         <v>506</v>
-      </c>
-      <c r="C313" s="18" t="s">
-        <v>507</v>
       </c>
       <c r="D313" s="40"/>
       <c r="E313" s="2"/>
@@ -13124,13 +13128,13 @@
     </row>
     <row r="314" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A314" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B314" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C314" s="18" t="s">
         <v>508</v>
-      </c>
-      <c r="C314" s="18" t="s">
-        <v>509</v>
       </c>
       <c r="D314" s="40"/>
       <c r="E314" s="2"/>
@@ -13158,13 +13162,13 @@
     </row>
     <row r="315" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A315" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B315" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C315" s="18" t="s">
         <v>510</v>
-      </c>
-      <c r="C315" s="18" t="s">
-        <v>511</v>
       </c>
       <c r="D315" s="40"/>
       <c r="E315" s="2"/>
@@ -13192,13 +13196,13 @@
     </row>
     <row r="316" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A316" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B316" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C316" s="18" t="s">
         <v>512</v>
-      </c>
-      <c r="C316" s="18" t="s">
-        <v>513</v>
       </c>
       <c r="D316" s="40"/>
       <c r="E316" s="2"/>
@@ -13226,13 +13230,13 @@
     </row>
     <row r="317" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A317" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B317" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C317" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D317" s="40"/>
       <c r="E317" s="2"/>
@@ -13260,13 +13264,13 @@
     </row>
     <row r="318" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A318" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B318" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C318" s="18" t="s">
         <v>514</v>
-      </c>
-      <c r="C318" s="18" t="s">
-        <v>515</v>
       </c>
       <c r="D318" s="40"/>
       <c r="E318" s="2"/>
@@ -13294,13 +13298,13 @@
     </row>
     <row r="319" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A319" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B319" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C319" s="18" t="s">
         <v>516</v>
-      </c>
-      <c r="C319" s="18" t="s">
-        <v>517</v>
       </c>
       <c r="D319" s="40"/>
       <c r="E319" s="2"/>
@@ -13328,13 +13332,13 @@
     </row>
     <row r="320" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A320" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B320" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C320" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D320" s="40"/>
       <c r="E320" s="2"/>
@@ -13362,13 +13366,13 @@
     </row>
     <row r="321" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A321" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B321" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C321" s="18" t="s">
         <v>519</v>
-      </c>
-      <c r="C321" s="18" t="s">
-        <v>520</v>
       </c>
       <c r="D321" s="40"/>
       <c r="E321" s="2"/>
@@ -13396,13 +13400,13 @@
     </row>
     <row r="322" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A322" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B322" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C322" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D322" s="40"/>
       <c r="E322" s="2"/>
@@ -13430,13 +13434,13 @@
     </row>
     <row r="323" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A323" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B323" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C323" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D323" s="40"/>
       <c r="E323" s="2"/>
@@ -13464,16 +13468,16 @@
     </row>
     <row r="324" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A324" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B324" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C324" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C324" s="18" t="s">
-        <v>524</v>
-      </c>
       <c r="D324" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
@@ -13500,13 +13504,13 @@
     </row>
     <row r="325" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A325" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B325" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C325" s="18" t="s">
         <v>525</v>
-      </c>
-      <c r="C325" s="18" t="s">
-        <v>526</v>
       </c>
       <c r="D325" s="40"/>
       <c r="E325" s="2"/>
@@ -13534,16 +13538,16 @@
     </row>
     <row r="326" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A326" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B326" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C326" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="C326" s="18" t="s">
-        <v>528</v>
-      </c>
       <c r="D326" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
@@ -13570,13 +13574,13 @@
     </row>
     <row r="327" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A327" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C327" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D327" s="40"/>
       <c r="E327" s="2"/>
@@ -13604,13 +13608,13 @@
     </row>
     <row r="328" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A328" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B328" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D328" s="40"/>
       <c r="E328" s="2"/>
@@ -13638,13 +13642,13 @@
     </row>
     <row r="329" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A329" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B329" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C329" s="18" t="s">
         <v>531</v>
-      </c>
-      <c r="C329" s="18" t="s">
-        <v>532</v>
       </c>
       <c r="D329" s="40"/>
       <c r="E329" s="2"/>
@@ -13672,13 +13676,13 @@
     </row>
     <row r="330" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A330" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B330" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D330" s="40"/>
       <c r="E330" s="2"/>
@@ -13706,13 +13710,13 @@
     </row>
     <row r="331" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A331" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B331" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C331" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D331" s="40"/>
       <c r="E331" s="2"/>
@@ -13740,13 +13744,13 @@
     </row>
     <row r="332" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A332" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B332" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C332" s="18" t="s">
         <v>535</v>
-      </c>
-      <c r="C332" s="18" t="s">
-        <v>536</v>
       </c>
       <c r="D332" s="40"/>
       <c r="E332" s="2"/>
@@ -13830,13 +13834,13 @@
     </row>
     <row r="335" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A335" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B335" s="45" t="s">
         <v>537</v>
       </c>
-      <c r="B335" s="45" t="s">
+      <c r="C335" s="18" t="s">
         <v>538</v>
-      </c>
-      <c r="C335" s="18" t="s">
-        <v>539</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -13864,13 +13868,13 @@
     </row>
     <row r="336" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A336" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B336" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="C336" s="18" t="s">
         <v>540</v>
-      </c>
-      <c r="C336" s="18" t="s">
-        <v>541</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -13898,13 +13902,13 @@
     </row>
     <row r="337" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A337" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B337" s="45" t="s">
+        <v>541</v>
+      </c>
+      <c r="C337" s="18" t="s">
         <v>542</v>
-      </c>
-      <c r="C337" s="18" t="s">
-        <v>543</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -13932,13 +13936,13 @@
     </row>
     <row r="338" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A338" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B338" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="C338" s="18" t="s">
         <v>544</v>
-      </c>
-      <c r="C338" s="18" t="s">
-        <v>545</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -13966,13 +13970,13 @@
     </row>
     <row r="339" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A339" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B339" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="C339" s="18" t="s">
         <v>546</v>
-      </c>
-      <c r="C339" s="18" t="s">
-        <v>547</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -14000,13 +14004,13 @@
     </row>
     <row r="340" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A340" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B340" s="45" t="s">
+        <v>547</v>
+      </c>
+      <c r="C340" s="18" t="s">
         <v>548</v>
-      </c>
-      <c r="C340" s="18" t="s">
-        <v>549</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -14090,13 +14094,13 @@
     </row>
     <row r="343" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A343" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B343" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="B343" s="16" t="s">
-        <v>551</v>
-      </c>
       <c r="C343" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -14124,13 +14128,13 @@
     </row>
     <row r="344" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A344" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B344" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C344" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -14158,13 +14162,13 @@
     </row>
     <row r="345" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A345" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B345" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C345" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -14192,13 +14196,13 @@
     </row>
     <row r="346" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A346" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B346" s="16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C346" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -14226,13 +14230,13 @@
     </row>
     <row r="347" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A347" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C347" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -14260,13 +14264,13 @@
     </row>
     <row r="348" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A348" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B348" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C348" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -14294,13 +14298,13 @@
     </row>
     <row r="349" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A349" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B349" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C349" s="18" t="s">
         <v>557</v>
-      </c>
-      <c r="C349" s="18" t="s">
-        <v>558</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="40"/>
@@ -14328,13 +14332,13 @@
     </row>
     <row r="350" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A350" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C350" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="40"/>
@@ -14362,13 +14366,13 @@
     </row>
     <row r="351" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A351" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C351" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="40"/>
@@ -14396,13 +14400,13 @@
     </row>
     <row r="352" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A352" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B352" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="C352" s="18" t="s">
         <v>561</v>
-      </c>
-      <c r="C352" s="18" t="s">
-        <v>562</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -14430,13 +14434,13 @@
     </row>
     <row r="353" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A353" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B353" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="C353" s="18" t="s">
         <v>563</v>
-      </c>
-      <c r="C353" s="18" t="s">
-        <v>564</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -14464,13 +14468,13 @@
     </row>
     <row r="354" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A354" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B354" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="C354" s="18" t="s">
         <v>565</v>
-      </c>
-      <c r="C354" s="18" t="s">
-        <v>566</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -14498,13 +14502,13 @@
     </row>
     <row r="355" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A355" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B355" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C355" s="18" t="s">
         <v>567</v>
-      </c>
-      <c r="C355" s="18" t="s">
-        <v>568</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -14532,13 +14536,13 @@
     </row>
     <row r="356" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A356" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B356" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="C356" s="18" t="s">
         <v>569</v>
-      </c>
-      <c r="C356" s="18" t="s">
-        <v>570</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -14566,13 +14570,13 @@
     </row>
     <row r="357" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A357" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B357" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="C357" s="18" t="s">
         <v>571</v>
-      </c>
-      <c r="C357" s="18" t="s">
-        <v>572</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -14600,13 +14604,13 @@
     </row>
     <row r="358" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A358" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B358" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="C358" s="18" t="s">
         <v>573</v>
-      </c>
-      <c r="C358" s="18" t="s">
-        <v>574</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -14634,13 +14638,13 @@
     </row>
     <row r="359" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A359" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B359" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C359" s="18" t="s">
         <v>575</v>
-      </c>
-      <c r="C359" s="18" t="s">
-        <v>576</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -14668,13 +14672,13 @@
     </row>
     <row r="360" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A360" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B360" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="C360" s="18" t="s">
         <v>577</v>
-      </c>
-      <c r="C360" s="18" t="s">
-        <v>578</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -14702,13 +14706,13 @@
     </row>
     <row r="361" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A361" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B361" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="C361" s="18" t="s">
         <v>579</v>
-      </c>
-      <c r="C361" s="18" t="s">
-        <v>580</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -14736,13 +14740,13 @@
     </row>
     <row r="362" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A362" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B362" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C362" s="18" t="s">
         <v>581</v>
-      </c>
-      <c r="C362" s="18" t="s">
-        <v>582</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -14770,13 +14774,13 @@
     </row>
     <row r="363" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A363" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B363" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C363" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -14804,13 +14808,13 @@
     </row>
     <row r="364" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A364" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B364" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C364" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -14838,13 +14842,13 @@
     </row>
     <row r="365" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A365" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B365" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C365" s="18" t="s">
         <v>585</v>
-      </c>
-      <c r="C365" s="18" t="s">
-        <v>586</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -14872,13 +14876,13 @@
     </row>
     <row r="366" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A366" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B366" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C366" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -14906,13 +14910,13 @@
     </row>
     <row r="367" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A367" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C367" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -14940,13 +14944,13 @@
     </row>
     <row r="368" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A368" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B368" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C368" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -14974,13 +14978,13 @@
     </row>
     <row r="369" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A369" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B369" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C369" s="18" t="s">
         <v>590</v>
-      </c>
-      <c r="C369" s="18" t="s">
-        <v>591</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -15008,13 +15012,13 @@
     </row>
     <row r="370" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A370" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B370" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C370" s="18" t="s">
         <v>592</v>
-      </c>
-      <c r="C370" s="18" t="s">
-        <v>593</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="40"/>
@@ -15042,13 +15046,13 @@
     </row>
     <row r="371" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A371" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B371" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C371" s="18" t="s">
         <v>594</v>
-      </c>
-      <c r="C371" s="18" t="s">
-        <v>595</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="40"/>
@@ -15076,13 +15080,13 @@
     </row>
     <row r="372" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A372" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B372" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C372" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="40"/>
@@ -15110,13 +15114,13 @@
     </row>
     <row r="373" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A373" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B373" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C373" s="18" t="s">
         <v>597</v>
-      </c>
-      <c r="C373" s="18" t="s">
-        <v>598</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="40"/>
@@ -15144,13 +15148,13 @@
     </row>
     <row r="374" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A374" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B374" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C374" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" s="40"/>
@@ -15178,13 +15182,13 @@
     </row>
     <row r="375" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A375" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B375" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="C375" s="18" t="s">
         <v>600</v>
-      </c>
-      <c r="C375" s="18" t="s">
-        <v>601</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" s="40"/>
@@ -15212,13 +15216,13 @@
     </row>
     <row r="376" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A376" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B376" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="C376" s="18" t="s">
         <v>602</v>
-      </c>
-      <c r="C376" s="18" t="s">
-        <v>603</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="40"/>
@@ -15246,13 +15250,13 @@
     </row>
     <row r="377" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A377" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B377" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="C377" s="18" t="s">
         <v>604</v>
-      </c>
-      <c r="C377" s="18" t="s">
-        <v>605</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="40"/>
@@ -15280,13 +15284,13 @@
     </row>
     <row r="378" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A378" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C378" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="40"/>
@@ -15314,13 +15318,13 @@
     </row>
     <row r="379" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A379" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B379" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="C379" s="18" t="s">
         <v>607</v>
-      </c>
-      <c r="C379" s="18" t="s">
-        <v>608</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="40"/>
@@ -15348,13 +15352,13 @@
     </row>
     <row r="380" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A380" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C380" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="40"/>
@@ -15382,13 +15386,13 @@
     </row>
     <row r="381" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A381" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C381" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="40"/>
@@ -15416,13 +15420,13 @@
     </row>
     <row r="382" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A382" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B382" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C382" s="18" t="s">
         <v>611</v>
-      </c>
-      <c r="C382" s="18" t="s">
-        <v>612</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="40"/>
@@ -15450,13 +15454,13 @@
     </row>
     <row r="383" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A383" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C383" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="40"/>
@@ -15484,13 +15488,13 @@
     </row>
     <row r="384" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A384" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C384" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="40"/>
@@ -15518,13 +15522,13 @@
     </row>
     <row r="385" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A385" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C385" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="40"/>
@@ -15552,13 +15556,13 @@
     </row>
     <row r="386" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A386" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B386" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="C386" s="18" t="s">
         <v>616</v>
-      </c>
-      <c r="C386" s="18" t="s">
-        <v>617</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="40"/>
@@ -15586,13 +15590,13 @@
     </row>
     <row r="387" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A387" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C387" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="40"/>
@@ -15620,13 +15624,13 @@
     </row>
     <row r="388" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A388" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B388" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="C388" s="18" t="s">
         <v>619</v>
-      </c>
-      <c r="C388" s="18" t="s">
-        <v>620</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="40"/>
@@ -15654,13 +15658,13 @@
     </row>
     <row r="389" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A389" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C389" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="40"/>
@@ -15688,13 +15692,13 @@
     </row>
     <row r="390" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A390" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C390" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="40"/>
@@ -15722,13 +15726,13 @@
     </row>
     <row r="391" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A391" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C391" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="40"/>
@@ -15756,13 +15760,13 @@
     </row>
     <row r="392" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A392" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B392" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="C392" s="18" t="s">
         <v>623</v>
-      </c>
-      <c r="C392" s="18" t="s">
-        <v>624</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="40"/>
@@ -15790,13 +15794,13 @@
     </row>
     <row r="393" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A393" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B393" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C393" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="40"/>
@@ -15824,13 +15828,13 @@
     </row>
     <row r="394" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A394" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B394" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C394" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="40"/>
@@ -15858,13 +15862,13 @@
     </row>
     <row r="395" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A395" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B395" s="16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C395" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="40"/>
@@ -15892,13 +15896,13 @@
     </row>
     <row r="396" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A396" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B396" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="C396" s="18" t="s">
         <v>628</v>
-      </c>
-      <c r="C396" s="18" t="s">
-        <v>629</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="40"/>
@@ -15980,13 +15984,13 @@
     </row>
     <row r="399" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A399" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B399" s="45" t="s">
         <v>630</v>
       </c>
-      <c r="B399" s="45" t="s">
+      <c r="C399" s="18" t="s">
         <v>631</v>
-      </c>
-      <c r="C399" s="18" t="s">
-        <v>632</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -16012,13 +16016,13 @@
     </row>
     <row r="400" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A400" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B400" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="C400" s="31" t="s">
         <v>633</v>
-      </c>
-      <c r="C400" s="31" t="s">
-        <v>634</v>
       </c>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -16044,13 +16048,13 @@
     </row>
     <row r="401" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A401" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B401" s="45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C401" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -16076,13 +16080,13 @@
     </row>
     <row r="402" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A402" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B402" s="45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C402" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
@@ -16108,13 +16112,13 @@
     </row>
     <row r="403" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A403" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B403" s="45" t="s">
+        <v>636</v>
+      </c>
+      <c r="C403" s="18" t="s">
         <v>637</v>
-      </c>
-      <c r="C403" s="18" t="s">
-        <v>638</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
@@ -16140,13 +16144,13 @@
     </row>
     <row r="404" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A404" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B404" s="45" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C404" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
@@ -16172,13 +16176,13 @@
     </row>
     <row r="405" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A405" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B405" s="45" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C405" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -16204,13 +16208,13 @@
     </row>
     <row r="406" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A406" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B406" s="45" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C406" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
@@ -16236,13 +16240,13 @@
     </row>
     <row r="407" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A407" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B407" s="45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C407" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
@@ -16268,13 +16272,13 @@
     </row>
     <row r="408" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A408" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B408" s="45" t="s">
+        <v>642</v>
+      </c>
+      <c r="C408" s="18" t="s">
         <v>643</v>
-      </c>
-      <c r="C408" s="18" t="s">
-        <v>644</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
@@ -16352,10 +16356,10 @@
     </row>
     <row r="411" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A411" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B411" s="16" t="s">
         <v>645</v>
-      </c>
-      <c r="B411" s="16" t="s">
-        <v>646</v>
       </c>
       <c r="C411" s="18"/>
       <c r="F411" s="2"/>
@@ -16382,13 +16386,13 @@
     </row>
     <row r="412" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A412" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B412" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -16414,13 +16418,13 @@
     </row>
     <row r="413" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A413" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B413" s="44" t="s">
+        <v>647</v>
+      </c>
+      <c r="C413" s="18" t="s">
         <v>648</v>
-      </c>
-      <c r="C413" s="18" t="s">
-        <v>649</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
@@ -16446,13 +16450,13 @@
     </row>
     <row r="414" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A414" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B414" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="C414" s="18" t="s">
         <v>650</v>
-      </c>
-      <c r="C414" s="18" t="s">
-        <v>651</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
@@ -16478,13 +16482,13 @@
     </row>
     <row r="415" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A415" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B415" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C415" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -16512,13 +16516,13 @@
     </row>
     <row r="416" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A416" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B416" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="C416" s="31" t="s">
         <v>653</v>
-      </c>
-      <c r="C416" s="31" t="s">
-        <v>654</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -30632,19 +30636,19 @@
   <customSheetViews>
     <customSheetView guid="{74A4E059-1443-4AB1-B8A5-D0CF7A555D23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{460CD998-3276-468D-9E19-E82D85ABA75D}"/>
+      <autoFilter ref="A11:C37" xr:uid="{C86D6E6F-277F-41C1-AD68-6D88240E9395}"/>
     </customSheetView>
     <customSheetView guid="{714AC731-2884-4C28-B1EB-9A1254FADC46}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{AB0CD410-0593-407F-BBEE-D83B55411185}"/>
+      <autoFilter ref="A11:D37" xr:uid="{0EEAFB31-DDD3-4E7C-AA9E-9B681F541F9A}"/>
     </customSheetView>
     <customSheetView guid="{A02B8754-E22F-46FD-9595-ED1A4A5BE971}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{A55A89A8-6EE7-401F-BAA2-64E5254364E4}"/>
+      <autoFilter ref="A11:D37" xr:uid="{FFD8DD29-ADAC-4D17-AF78-1BE42E3BC919}"/>
     </customSheetView>
     <customSheetView guid="{BEB14FAE-16AE-47BA-8FD0-310C3CA20652}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{96149867-5B57-4733-A44C-5C91DA88035A}"/>
+      <autoFilter ref="A293:C332" xr:uid="{9E1B48DB-D8D3-4AA1-9E38-59D062F72D64}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -30668,7 +30672,7 @@
     <hyperlink ref="B22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="B23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B25" r:id="rId16" display="Find Minimum in Rotated Sorted Array" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="B27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="B28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
@@ -31053,14 +31057,14 @@
     <col min="3" max="3" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
@@ -31077,12 +31081,12 @@
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -31091,7 +31095,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -31100,16 +31104,16 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -31119,7 +31123,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>13</v>
@@ -31127,85 +31131,85 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C12" s="48" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="28" t="s">
+    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="28" t="s">
+    <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="28" t="s">
+    <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="28" t="s">
+    <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="28" t="s">
+    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="28" t="s">
+    <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -31218,42 +31222,42 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31266,50 +31270,50 @@
     </row>
     <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31318,18 +31322,18 @@
     </row>
     <row r="45" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31342,10 +31346,10 @@
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31358,42 +31362,42 @@
     </row>
     <row r="52" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31406,26 +31410,26 @@
     </row>
     <row r="59" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31438,66 +31442,66 @@
     </row>
     <row r="64" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/Question Sheet/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/Question Sheet/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DSA Practice\Question Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1FB75B-ECC5-43DE-9152-7A5062BB467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11C5FF-5C81-43EB-8DEE-C6DC40FB534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,16 +24,16 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{A02B8754-E22F-46FD-9595-ED1A4A5BE971}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{74A4E059-1443-4AB1-B8A5-D0CF7A555D23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{714AC731-2884-4C28-B1EB-9A1254FADC46}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{BEB14FAE-16AE-47BA-8FD0-310C3CA20652}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{714AC731-2884-4C28-B1EB-9A1254FADC46}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{74A4E059-1443-4AB1-B8A5-D0CF7A555D23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{A02B8754-E22F-46FD-9595-ED1A4A5BE971}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="699">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2753,16 +2753,16 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="88.21875" customWidth="1"/>
-    <col min="3" max="3" width="72.21875" customWidth="1"/>
-    <col min="4" max="4" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.44140625" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
@@ -3573,7 +3573,9 @@
         <v>38</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -30634,21 +30636,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{74A4E059-1443-4AB1-B8A5-D0CF7A555D23}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BEB14FAE-16AE-47BA-8FD0-310C3CA20652}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{C86D6E6F-277F-41C1-AD68-6D88240E9395}"/>
+      <autoFilter ref="A293:C332" xr:uid="{5B0905BD-BF70-48BB-B7B5-6ECC303FD66C}"/>
+    </customSheetView>
+    <customSheetView guid="{A02B8754-E22F-46FD-9595-ED1A4A5BE971}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{A56106A8-FE7E-472A-A9E3-0B52FF2C4053}"/>
     </customSheetView>
     <customSheetView guid="{714AC731-2884-4C28-B1EB-9A1254FADC46}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{0EEAFB31-DDD3-4E7C-AA9E-9B681F541F9A}"/>
+      <autoFilter ref="A11:D37" xr:uid="{182F1A89-450F-4661-A665-14CDFD0C921E}"/>
     </customSheetView>
-    <customSheetView guid="{A02B8754-E22F-46FD-9595-ED1A4A5BE971}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{74A4E059-1443-4AB1-B8A5-D0CF7A555D23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{FFD8DD29-ADAC-4D17-AF78-1BE42E3BC919}"/>
-    </customSheetView>
-    <customSheetView guid="{BEB14FAE-16AE-47BA-8FD0-310C3CA20652}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{9E1B48DB-D8D3-4AA1-9E38-59D062F72D64}"/>
+      <autoFilter ref="A11:C37" xr:uid="{C85E8B1C-152C-412A-971B-505E5F70FD21}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">

--- a/Question Sheet/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/Question Sheet/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DSA Practice\Question Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11C5FF-5C81-43EB-8DEE-C6DC40FB534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10F28F-FAC2-4E53-B5C8-2AA930D3847A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,16 +24,16 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{BEB14FAE-16AE-47BA-8FD0-310C3CA20652}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{714AC731-2884-4C28-B1EB-9A1254FADC46}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{74A4E059-1443-4AB1-B8A5-D0CF7A555D23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{A02B8754-E22F-46FD-9595-ED1A4A5BE971}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{74A4E059-1443-4AB1-B8A5-D0CF7A555D23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{714AC731-2884-4C28-B1EB-9A1254FADC46}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{BEB14FAE-16AE-47BA-8FD0-310C3CA20652}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="699">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2753,8 +2753,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3401,7 +3401,9 @@
         <v>23</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -30636,21 +30638,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BEB14FAE-16AE-47BA-8FD0-310C3CA20652}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{74A4E059-1443-4AB1-B8A5-D0CF7A555D23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{5B0905BD-BF70-48BB-B7B5-6ECC303FD66C}"/>
+      <autoFilter ref="A11:C37" xr:uid="{C418B2ED-EA3A-4F47-8B49-0F91098414F2}"/>
+    </customSheetView>
+    <customSheetView guid="{714AC731-2884-4C28-B1EB-9A1254FADC46}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{6FBB1388-AC21-4C3C-91EC-EE477368800D}"/>
     </customSheetView>
     <customSheetView guid="{A02B8754-E22F-46FD-9595-ED1A4A5BE971}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{A56106A8-FE7E-472A-A9E3-0B52FF2C4053}"/>
+      <autoFilter ref="A11:D37" xr:uid="{A55EB243-F91E-42E3-B19F-CFF20627F834}"/>
     </customSheetView>
-    <customSheetView guid="{714AC731-2884-4C28-B1EB-9A1254FADC46}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BEB14FAE-16AE-47BA-8FD0-310C3CA20652}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{182F1A89-450F-4661-A665-14CDFD0C921E}"/>
-    </customSheetView>
-    <customSheetView guid="{74A4E059-1443-4AB1-B8A5-D0CF7A555D23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{C85E8B1C-152C-412A-971B-505E5F70FD21}"/>
+      <autoFilter ref="A293:C332" xr:uid="{9EE42198-36C9-46A5-AAF9-5766E86195CD}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
